--- a/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
+++ b/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>200012</t>
+          <t>590002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城中小盘成长混合</t>
+          <t>中邮核心成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>63.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008980</t>
+          <t>001224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合A</t>
+          <t>中邮新思路灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.02</t>
+          <t>19.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008981</t>
+          <t>010049</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合C</t>
+          <t>长城成长先锋混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.02</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>002620</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>中邮未来新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>14.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010363</t>
+          <t>001227</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
+          <t>中邮信息产业灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80.04</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6468</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>200007</t>
+          <t>010363</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城安心回报混合</t>
+          <t>信达澳银匠心臻选两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.03</t>
+          <t>18.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5997</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>540002</t>
+          <t>008980</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信龙腾混合</t>
+          <t>中邮科技创新精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000706</t>
+          <t>200007</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮多策略灵活配置混合</t>
+          <t>长城安心回报混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001224</t>
+          <t>200012</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮新思路灵活配置混合</t>
+          <t>长城中小盘成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001227</t>
+          <t>540002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮信息产业灵活配置混合</t>
+          <t>汇丰晋信龙腾混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.47</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>590002</t>
+          <t>008981</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮核心成长混合</t>
+          <t>中邮科技创新精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>200010</t>
+          <t>004139</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长城双动力混合</t>
+          <t>中邮军民融合灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>200010</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>长城双动力混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84.74</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -894,15 +1044,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>97.88</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.84</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -922,15 +1082,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>5.81</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004139</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中邮军民融合灵活配置混合</t>
+          <t>长城成长先锋混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -978,15 +1158,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>94.76</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008890</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010049</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长城成长先锋混合A</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.82</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1052,25 +1262,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>000706</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>长城成长先锋混合C</t>
+          <t>中邮多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.82</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1085,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1326,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004139</t>
+          <t>001475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮军民融合灵活配置混合</t>
+          <t>易方达国防军工混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>111.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001224</t>
+          <t>590002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮新思路灵活配置混合</t>
+          <t>中邮核心成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77.75</t>
+          <t>53.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001475</t>
+          <t>001224</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达国防军工混合</t>
+          <t>中邮新思路灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>590002</t>
+          <t>002620</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮核心成长混合</t>
+          <t>中邮未来新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.66</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>008980</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>中邮科技创新精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>72.23</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>008981</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
+          <t>中邮科技创新精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008980</t>
+          <t>004139</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合A</t>
+          <t>中邮军民融合灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>74.76</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008981</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合C</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74.76</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
+++ b/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5895</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3878</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3825</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安新乐享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
+++ b/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,4 +2513,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6250</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0574</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0559</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4249</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4078</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
+++ b/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3291,4 +3292,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
+++ b/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3300,7 +3301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3311,17 +3312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3331,14 +3352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.53</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>200.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3347,14 +3390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.51</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3363,14 +3428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.14</v>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3298</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3379,13 +3466,1595 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6548</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5533</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5156</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4747</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4591</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3887</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3175</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
+++ b/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4953,7 +4954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4964,17 +4965,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4984,14 +5005,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.77</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5000,14 +5043,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.53</v>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5016,14 +5081,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.51</v>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5032,14 +5119,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.14</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2711</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5048,13 +5157,889 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0710</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7677</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4933</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3764</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
+++ b/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5922,7 +5923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5933,17 +5934,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5953,14 +5974,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.26</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5969,14 +6012,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.77</v>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5985,14 +6050,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.53</v>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6001,14 +6088,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.51</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6017,14 +6126,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.14</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6033,13 +6164,2119 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0926</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9856</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8942</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8164</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7238</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6195</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4661</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
+++ b/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>31.9</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>19.26</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>23.77</v>
+        <v>19.26</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>17.53</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>14.51</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>7.14</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.6</v>
       </c>
     </row>
@@ -600,6 +617,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8868</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7460</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6726</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6560</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6426</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5630</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2819,7 +4184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3787,7 +5152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5439,7 +6804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6217,7 +7582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7071,7 +8436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7431,7 +8796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
+++ b/数据整理/stocks/A股/创业板/300775-三角防务.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>18.94</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>31.9</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>19.26</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>23.77</v>
+        <v>19.26</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>17.53</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>14.51</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>7.14</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.6</v>
       </c>
     </row>
@@ -616,7 +633,3157 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6468</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5997</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0012</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6877</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5472</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0380</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8320</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8304</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7617</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7043</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4838</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4588</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮兴荣价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014329</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014330</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001485</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安添颐混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015694</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015695</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1964,7 +5131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4184,7 +7351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5152,7 +8319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6804,7 +9971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7582,7 +10749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8436,7 +11603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8794,858 +11961,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>590002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮核心成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>63.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6741</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001224</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮新思路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0634</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010049</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8694</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002620</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7176</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001227</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中邮信息产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6468</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010363</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5997</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008980</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮科技创新精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4724</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>200007</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长城安心回报混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4255</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>200012</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长城中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.77</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2876</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>540002</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇丰晋信龙腾混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2721</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008981</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中邮科技创新精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1449</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004139</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮军民融合灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0851</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0768</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0389</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>200001</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长城久恒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>540007</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000706</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中邮多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>